--- a/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1MTXCYkEmc_万字解析一口气看完刺客信条影全剧情故事刺客信条通史第23期_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1MTXCYkEmc_万字解析一口气看完刺客信条影全剧情故事刺客信条通史第23期_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="195">
   <si>
     <t>bvid</t>
   </si>
@@ -46,16 +46,190 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1MTXCYkEmc</t>
   </si>
   <si>
-    <t>1742227</t>
-  </si>
-  <si>
     <t>漆黑的游击士</t>
   </si>
   <si>
+    <t>简丶墨问</t>
+  </si>
+  <si>
+    <t>b站用户102253</t>
+  </si>
+  <si>
+    <t>呆虫x</t>
+  </si>
+  <si>
+    <t>柒寒--</t>
+  </si>
+  <si>
+    <t>Aの父</t>
+  </si>
+  <si>
+    <t>烟士比里纯</t>
+  </si>
+  <si>
+    <t>夜樹伊怜</t>
+  </si>
+  <si>
+    <t>火锅光头</t>
+  </si>
+  <si>
+    <t>Cooffee咖啡</t>
+  </si>
+  <si>
+    <t>跟跟不鲁跟</t>
+  </si>
+  <si>
+    <t>REALGUN</t>
+  </si>
+  <si>
+    <t>寡人笑撚咗</t>
+  </si>
+  <si>
+    <t>诡计策划师</t>
+  </si>
+  <si>
+    <t>永雏丶小柒</t>
+  </si>
+  <si>
+    <t>混沌精灵夏玻利利</t>
+  </si>
+  <si>
+    <t>好兄弟查尔斯史密斯</t>
+  </si>
+  <si>
+    <t>三猫将</t>
+  </si>
+  <si>
+    <t>柴犬非犬</t>
+  </si>
+  <si>
+    <t>Howard_HD</t>
+  </si>
+  <si>
+    <t>炼狱澄香</t>
+  </si>
+  <si>
+    <t>爱吃阳明山小麻薯</t>
+  </si>
+  <si>
+    <t>之村晚</t>
+  </si>
+  <si>
+    <t>黑心果汁商人</t>
+  </si>
+  <si>
+    <t>illusionLT</t>
+  </si>
+  <si>
+    <t>罗网-黑白玄翦</t>
+  </si>
+  <si>
+    <t>东风快递Z</t>
+  </si>
+  <si>
+    <t>赛琳娜的屑指</t>
+  </si>
+  <si>
+    <t>刘半鲜</t>
+  </si>
+  <si>
+    <t>bili_32173977607</t>
+  </si>
+  <si>
+    <t>抽不出空暴走</t>
+  </si>
+  <si>
+    <t>听海xi</t>
+  </si>
+  <si>
+    <t>bj0079</t>
+  </si>
+  <si>
+    <t>悠酱战舰鉴赏指南</t>
+  </si>
+  <si>
+    <t>somebody8</t>
+  </si>
+  <si>
+    <t>dmkfiem</t>
+  </si>
+  <si>
+    <t>沐涩EBR</t>
+  </si>
+  <si>
+    <t>Rainbow丶圆月弯刀</t>
+  </si>
+  <si>
+    <t>伍狗狗</t>
+  </si>
+  <si>
+    <t>好奇的大懒猫</t>
+  </si>
+  <si>
+    <t>鱼头吃不吃芋头</t>
+  </si>
+  <si>
+    <t>S-C-P022</t>
+  </si>
+  <si>
+    <t>安德利亚特耳撒尔德</t>
+  </si>
+  <si>
+    <t>D1s4ppointm3nt</t>
+  </si>
+  <si>
+    <t>楪柍</t>
+  </si>
+  <si>
+    <t>燐火止夜</t>
+  </si>
+  <si>
+    <t>最想传达没问题</t>
+  </si>
+  <si>
+    <t>鲨P</t>
+  </si>
+  <si>
+    <t>凤舞九天六界成皇</t>
+  </si>
+  <si>
+    <t>Damon_R</t>
+  </si>
+  <si>
+    <t>鹭月娜</t>
+  </si>
+  <si>
+    <t>看个貔</t>
+  </si>
+  <si>
+    <t>洋葱突击兵</t>
+  </si>
+  <si>
+    <t>差几个硬币改名字</t>
+  </si>
+  <si>
+    <t>霜麟聚露_甘雨</t>
+  </si>
+  <si>
+    <t>安产型的小北</t>
+  </si>
+  <si>
+    <t>peek_pig</t>
+  </si>
+  <si>
     <t>保密</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
   </si>
   <si>
     <t>未知</t>
@@ -66,290 +240,74 @@
 比如奈绪江和弥助有大量回忆剧情，明显原计划是放到序章的，但是全切碎了放到后面，用回忆形式倒序了。</t>
   </si>
   <si>
-    <t>2025-03-27 11:28:20</t>
-  </si>
-  <si>
-    <t>65180145</t>
-  </si>
-  <si>
-    <t>简丶墨问</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>不是，现代线就干脆摆烂了呗</t>
   </si>
   <si>
-    <t>2025-03-27 08:28:35</t>
-  </si>
-  <si>
-    <t>405007878</t>
-  </si>
-  <si>
-    <t>b站用户102253</t>
-  </si>
-  <si>
     <t>这作既没有现代线有也没有伊述线，神器有啥效果也没说，真的无聊</t>
   </si>
   <si>
-    <t>2025-03-27 06:29:13</t>
-  </si>
-  <si>
-    <t>8802672</t>
-  </si>
-  <si>
-    <t>呆虫x</t>
-  </si>
-  <si>
     <t>对哦，第三个神器呢？第二个神器出现的太快了，我本来以为后面还有剧情，要找齐三大神器，结果就没了。</t>
   </si>
   <si>
-    <t>2025-03-27 01:38:01</t>
-  </si>
-  <si>
-    <t>12757947</t>
-  </si>
-  <si>
-    <t>柒寒--</t>
-  </si>
-  <si>
     <t>剧情纯半成品，感觉一切才刚刚开始就结束了，把《刺客信条》的剧情全部拆到DLC里，《奈绪江与弥助》放到本体里，本末倒置了。</t>
   </si>
   <si>
-    <t>2025-03-27 00:57:20</t>
-  </si>
-  <si>
-    <t>291039965</t>
-  </si>
-  <si>
-    <t>Aの父</t>
-  </si>
-  <si>
     <t>爱玩只狼那种，但是不喜欢黑魂那种欧美神话风格，能入这游戏吗</t>
   </si>
   <si>
-    <t>2025-03-26 14:26:10</t>
-  </si>
-  <si>
-    <t>25548147</t>
-  </si>
-  <si>
-    <t>烟士比里纯</t>
-  </si>
-  <si>
     <t>丧父，被掐脖子，复仇少女，让我想起了一位故人</t>
   </si>
   <si>
-    <t>2025-03-26 14:00:44</t>
-  </si>
-  <si>
-    <t>17732839</t>
-  </si>
-  <si>
-    <t>夜樹伊怜</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
     <t>格局比较小，讲的是奈绪江复仇的故事而已，这个故事里的圣殿骑士和刺客兄弟会换个别的组织都可以，和艾吉奥不同的是奈绪江缺少了一个马里奥叔叔，一切只能自己摸索，感觉小江和刺客大师的距离还是有点远，整段故事给我的感觉也仅仅才到刺客信条2艾吉奥正式加入兄弟会那一段而已</t>
   </si>
   <si>
-    <t>2025-03-26 09:29:19</t>
-  </si>
-  <si>
-    <t>630440281</t>
-  </si>
-  <si>
-    <t>火锅光头</t>
-  </si>
-  <si>
     <t>只有我一个人觉得女主很像坤坤吗？我玩的时候觉得更像，要是有背带裤mod就全了</t>
   </si>
   <si>
-    <t>2025-03-26 03:58:01</t>
-  </si>
-  <si>
-    <t>5683287</t>
-  </si>
-  <si>
-    <t>Cooffee咖啡</t>
-  </si>
-  <si>
     <t>剧情还不如山内鹰和虎彻那个设定</t>
   </si>
   <si>
-    <t>2025-03-26 02:36:17</t>
-  </si>
-  <si>
-    <t>270753813</t>
-  </si>
-  <si>
-    <t>跟跟不鲁跟</t>
-  </si>
-  <si>
     <t>我觉得剧情还可以,就因为一个黑人武士被全网嘲讽,我觉得亏大了</t>
   </si>
   <si>
-    <t>2025-03-26 01:07:07</t>
-  </si>
-  <si>
-    <t>899757</t>
-  </si>
-  <si>
-    <t>REALGUN</t>
-  </si>
-  <si>
     <t>up你确定剧情到这里就完了？我也是打完卡洛就出字幕了，但是差点成就列表限制还有两章没完</t>
   </si>
   <si>
-    <t>2025-03-26 00:14:16</t>
-  </si>
-  <si>
     <t>我还以为我打的是假结局原来真就太监啊[笑哭]。没现代剧情没伊术人剧情。草薙剑也没交代。这什么鬼啊</t>
   </si>
   <si>
-    <t>2025-03-26 00:05:37</t>
-  </si>
-  <si>
-    <t>11516906</t>
-  </si>
-  <si>
-    <t>寡人笑撚咗</t>
-  </si>
-  <si>
     <t>所以神器有什么用</t>
   </si>
   <si>
-    <t>2025-03-25 20:58:27</t>
-  </si>
-  <si>
-    <t>7396560</t>
-  </si>
-  <si>
-    <t>诡计策划师</t>
-  </si>
-  <si>
     <t>我感觉最大的问题是这一作两个boss太捞了，足利义昭是个怂逼，直接投了，这能理解，毕竟历史上他活到秀吉晚年了。另一个虚构的圣殿骑士low穿了，整个贪生怕死的农场主形象，符合刻板印象</t>
   </si>
   <si>
-    <t>2025-03-25 17:25:15</t>
-  </si>
-  <si>
-    <t>10604039</t>
-  </si>
-  <si>
-    <t>永雏丶小柒</t>
-  </si>
-  <si>
     <t>up的嗓音怎么变了</t>
   </si>
   <si>
-    <t>2025-03-25 16:37:51</t>
-  </si>
-  <si>
-    <t>11677815</t>
-  </si>
-  <si>
-    <t>混沌精灵夏玻利利</t>
-  </si>
-  <si>
     <t>好平庸的剧情，不过也符合育碧的水平</t>
   </si>
   <si>
-    <t>2025-03-25 16:22:35</t>
-  </si>
-  <si>
-    <t>122388447</t>
-  </si>
-  <si>
-    <t>好兄弟查尔斯史密斯</t>
-  </si>
-  <si>
     <t>奈绪江好漂亮，有一种东亚人独有的美</t>
-  </si>
-  <si>
-    <t>2025-03-25 13:00:24</t>
-  </si>
-  <si>
-    <t>1845793</t>
-  </si>
-  <si>
-    <t>三猫将</t>
   </si>
   <si>
     <t>游戏里不管哪家的兵，真就是照杀不误啊，用弥住到小兵面前还给我行礼，结果可以残忍刺杀[笑哭]
 另外刺客下手堪比武松，大宅里的佣人都不放过咔咔杀</t>
   </si>
   <si>
-    <t>2025-03-25 11:50:13</t>
-  </si>
-  <si>
-    <t>122630777</t>
-  </si>
-  <si>
-    <t>柴犬非犬</t>
-  </si>
-  <si>
     <t>这一部本来是亚洲人主角，zzzq给我恶心到了</t>
   </si>
   <si>
-    <t>2025-03-25 11:41:13</t>
-  </si>
-  <si>
-    <t>490832592</t>
-  </si>
-  <si>
-    <t>Howard_HD</t>
-  </si>
-  <si>
     <t>说实话，还不错</t>
   </si>
   <si>
-    <t>2025-03-25 11:11:55</t>
-  </si>
-  <si>
-    <t>73812214</t>
-  </si>
-  <si>
-    <t>炼狱澄香</t>
-  </si>
-  <si>
     <t>虽然影拉了，但是西八耶没拉[打call][打call][打call][打call]</t>
   </si>
   <si>
-    <t>2025-03-25 09:13:25</t>
-  </si>
-  <si>
-    <t>11218907</t>
-  </si>
-  <si>
-    <t>爱吃阳明山小麻薯</t>
-  </si>
-  <si>
     <t>阿市也是我是没想到的。所以她是本能寺知情不报看着她哥死是吧[辣眼睛]</t>
   </si>
   <si>
-    <t>2025-03-25 07:16:14</t>
-  </si>
-  <si>
-    <t>33817495</t>
-  </si>
-  <si>
-    <t>之村晚</t>
-  </si>
-  <si>
     <t>做得真好</t>
-  </si>
-  <si>
-    <t>2025-03-25 04:33:10</t>
-  </si>
-  <si>
-    <t>10100387</t>
-  </si>
-  <si>
-    <t>黑心果汁商人</t>
   </si>
   <si>
     <t>所以伊述遗迹和神器,这作本体是完全没有呈现出来么?
@@ -359,181 +317,46 @@
 而不是剧情中的一笔带过,或者没有实物只靠讲述的方式出现[辣眼睛]</t>
   </si>
   <si>
-    <t>2025-03-25 04:21:15</t>
-  </si>
-  <si>
-    <t>9331031</t>
-  </si>
-  <si>
-    <t>illusionLT</t>
-  </si>
-  <si>
     <t>我只能说千万别买 奥德赛日本dlc罢了 巨无聊</t>
   </si>
   <si>
-    <t>2025-03-25 01:59:32</t>
-  </si>
-  <si>
-    <t>482542061</t>
-  </si>
-  <si>
-    <t>罗网-黑白玄翦</t>
-  </si>
-  <si>
     <t>刺客信条太多，太繁杂，而且战斗模式太类似，玩了五六部之后暂时是怎么都玩不下去了</t>
   </si>
   <si>
-    <t>2025-03-24 23:43:19</t>
-  </si>
-  <si>
-    <t>1303626104</t>
-  </si>
-  <si>
-    <t>东风快递Z</t>
-  </si>
-  <si>
     <t>弥助这边的剧情不完整，不过我居然感觉比奈绪江那边好一点。</t>
   </si>
   <si>
-    <t>2025-03-24 22:51:21</t>
-  </si>
-  <si>
-    <t>626668458</t>
-  </si>
-  <si>
-    <t>赛琳娜的屑指</t>
-  </si>
-  <si>
     <t>dlc三神器预订，再预订一手卡姐[doge_金箍]</t>
   </si>
   <si>
-    <t>2025-03-24 20:46:11</t>
-  </si>
-  <si>
-    <t>637043</t>
-  </si>
-  <si>
-    <t>刘半鲜</t>
-  </si>
-  <si>
     <t>奈绪江会不会以后改名山内鹰[藏狐]</t>
   </si>
   <si>
-    <t>2025-03-24 19:58:43</t>
-  </si>
-  <si>
-    <t>529324758</t>
-  </si>
-  <si>
-    <t>bili_32173977607</t>
-  </si>
-  <si>
     <t>这一代，我最难受得是，没有刺客与圣殿的自由与秩序的分歧，反派组织真幕府都不能算圣殿骑士的本土化（弥助支线有圣殿boss发展的一批人，也不知道算不算正式入会），只是圣殿骑士的外包公司，他们不知道日本三神器伊甸神器的功效，只知道圣殿发了招工广告，拿三神器可以换钱、换粮草、换武器，他们就干了（离大谱），帮圣殿干脏活，只为了恢复室町幕府或是幕府秩序（这一段比较贴合历史，据说织田信长不想沿用幕府秩序而招致明智光秀的背叛），真幕府没有一点对秩序的理解。而女主了，好像也跟刺客搭不上边，没有导师告诉她刺客的知识，西班牙的刺客在日本建立兄弟会，好像没把刺客的知识带过来，或是只收了女主母亲唯一一名学徒，到最后兄弟会在剧情里好像有，也好像不存在，育碧好像现就想跟前作划清界限，弄的没啥传承。</t>
   </si>
   <si>
-    <t>2025-03-24 19:15:05</t>
-  </si>
-  <si>
-    <t>319931293</t>
-  </si>
-  <si>
-    <t>抽不出空暴走</t>
-  </si>
-  <si>
     <t>up主这声线和我的生物任课老师一样[喜极而泣]</t>
   </si>
   <si>
-    <t>2025-03-24 19:01:00</t>
-  </si>
-  <si>
-    <t>674774546</t>
-  </si>
-  <si>
-    <t>听海xi</t>
-  </si>
-  <si>
     <t>除了圣殿骑士和偶尔出现的兄弟会，还有其他跟前作的联系就好了</t>
   </si>
   <si>
-    <t>2025-03-24 18:55:58</t>
-  </si>
-  <si>
-    <t>395908764</t>
-  </si>
-  <si>
-    <t>bj0079</t>
-  </si>
-  <si>
     <t>到底是草什么剑？我一直念“志”</t>
   </si>
   <si>
-    <t>2025-03-24 18:47:43</t>
-  </si>
-  <si>
-    <t>519858548</t>
-  </si>
-  <si>
-    <t>悠酱战舰鉴赏指南</t>
-  </si>
-  <si>
     <t>这样看来育碧构想的中国剧情确实很有可能与郑成功有关</t>
   </si>
   <si>
-    <t>2025-03-24 18:41:32</t>
-  </si>
-  <si>
-    <t>183258054</t>
-  </si>
-  <si>
-    <t>somebody8</t>
-  </si>
-  <si>
     <t>解说的很好，把很多无声的剧情生动的转成文字描述出来了</t>
   </si>
   <si>
-    <t>2025-03-24 18:03:18</t>
-  </si>
-  <si>
-    <t>179063825</t>
-  </si>
-  <si>
-    <t>dmkfiem</t>
-  </si>
-  <si>
     <t>玩法撑不起剧情。打到俩主角汇合就玩不下去了，前期开罐头的时间太长了，都没耐心继续玩。</t>
   </si>
   <si>
-    <t>2025-03-24 17:11:06</t>
-  </si>
-  <si>
-    <t>451978042</t>
-  </si>
-  <si>
-    <t>沐涩EBR</t>
-  </si>
-  <si>
     <t>刚打完剧情，做了一点animus裂缝任务[微笑]这作的现代线会不会是戴斯蒙，我总觉得这主控是阅读者戴斯蒙在世界树里走了一遍影的古代故事[大哭][大哭][大哭]然后日本的三神器为啥卡罗说和他们之前认为的不一样啊[大哭]</t>
   </si>
   <si>
-    <t>2025-03-24 15:19:22</t>
-  </si>
-  <si>
-    <t>694031791</t>
-  </si>
-  <si>
-    <t>Rainbow丶圆月弯刀</t>
-  </si>
-  <si>
     <t>不是哥们，救弥助这行为都理解不了？很明显这是来杀圣殿骑士撞上了弥助被处决啊</t>
-  </si>
-  <si>
-    <t>2025-03-24 15:15:49</t>
-  </si>
-  <si>
-    <t>2054177</t>
-  </si>
-  <si>
-    <t>伍狗狗</t>
   </si>
   <si>
     <t>这几天玩到日夜颠倒，如果不是上班还得继续颠倒。
@@ -545,208 +368,55 @@
 我个人属于第二种，一边打还要一边查资料以增强代入感，但查到很多历史人物的时间节点和关键事件和游戏里表现得不符还是挺难崩的[笑哭]。但把它都当做刺客信条世界观下的野史也不是不能接受，毕竟不是自己的历史也就图一乐——但希望如果育碧真要做刺客信条中国，那还是再多用点心吧[笑哭]。</t>
   </si>
   <si>
-    <t>2025-03-24 13:42:59</t>
-  </si>
-  <si>
-    <t>17130016</t>
-  </si>
-  <si>
-    <t>好奇的大懒猫</t>
-  </si>
-  <si>
     <t>第713！[doge]</t>
   </si>
   <si>
-    <t>2025-03-24 13:20:02</t>
-  </si>
-  <si>
-    <t>331396963</t>
-  </si>
-  <si>
-    <t>鱼头吃不吃芋头</t>
-  </si>
-  <si>
     <t>听了up梳理，瞬间通透了，整体故事没太大毛病，就是选角这块有点抽象，而且游戏我也玩的差不多了，说实话旅游模拟器还是发挥的可以的，bug我其实也没遇到多少，我个人觉得这游戏最大的痛点有三个，第一是选角抽象，第二就是情感线辣眼睛，第三就是人物侧重分割把侧重于跑图开点的能力也给分割开了（就是前期跑图必须要用女主，不然男主连部分鸟瞰点都爬不上去，鸟瞰点偏偏还是传送点）。类似于YB传统的问号或是支线，我觉得也就那样了，不能算是痛点</t>
   </si>
   <si>
-    <t>2025-03-24 13:02:04</t>
-  </si>
-  <si>
-    <t>34290367</t>
-  </si>
-  <si>
-    <t>S-C-P022</t>
-  </si>
-  <si>
     <t>感觉弥助正面作战能力太超模了，一脚把小兵踢出八丈远我还能理解，毕竟182壮汉打150菜鸡是这样的，但是靠冲撞直接把双开的木质大门撞碎有点离谱了吧，这堪比战锤40K的阿斯塔特啊</t>
   </si>
   <si>
-    <t>2025-03-24 10:52:25</t>
-  </si>
-  <si>
     <t>感觉本身故事线还算及格，但是因为用了大量的倒叙➕回忆杀导致玩起来很混乱，然后盲猜一手后面再安排卡珊德拉这位街溜子大姐逛到了日本的剧情“来弥助，姐姐屋里有些好康的”</t>
   </si>
   <si>
-    <t>2025-03-24 10:48:01</t>
-  </si>
-  <si>
-    <t>38243218</t>
-  </si>
-  <si>
-    <t>安德利亚特耳撒尔德</t>
-  </si>
-  <si>
     <t>艾吉奥的传承教给了 邵云 邵云再传承给日本 亚洲这一脉的刺客信念就直接来源于大师艾吉奥了 结果尼玛的直接找了一个被驱逐的西班牙人麻了</t>
   </si>
   <si>
-    <t>2025-03-24 09:36:51</t>
-  </si>
-  <si>
-    <t>384601179</t>
-  </si>
-  <si>
-    <t>D1s4ppointm3nt</t>
-  </si>
-  <si>
     <t>为什么感觉刺客的正统主角还是奈绪江（☁️）</t>
   </si>
   <si>
-    <t>2025-03-24 09:03:22</t>
-  </si>
-  <si>
-    <t>4113375</t>
-  </si>
-  <si>
-    <t>楪柍</t>
-  </si>
-  <si>
     <t>[doge]突然感觉浪人崛起还好玩一点</t>
   </si>
   <si>
-    <t>2025-03-24 03:32:35</t>
-  </si>
-  <si>
-    <t>864741</t>
-  </si>
-  <si>
-    <t>燐火止夜</t>
-  </si>
-  <si>
     <t>印象里很久之前在刺客吧看过一个时间线帖子 里面写有个东大刺客刘燕还是刘艳到11区带走了伊甸圣剑 信长是圣殿啥来着 也有提过半藏 还有个什么山田鹰还是桥本鹰来着 时间太久也可能记歪了</t>
   </si>
   <si>
-    <t>2025-03-24 03:30:36</t>
-  </si>
-  <si>
-    <t>38735629</t>
-  </si>
-  <si>
-    <t>最想传达没问题</t>
-  </si>
-  <si>
     <t>这座人物的表情做的很奇怪，像ai似的。。。</t>
   </si>
   <si>
-    <t>2025-03-24 01:42:43</t>
-  </si>
-  <si>
-    <t>3493083601701137</t>
-  </si>
-  <si>
-    <t>鲨P</t>
-  </si>
-  <si>
     <t>刺客信条还不如改名叫战士信条，各个时代各个文明的战士[doge_金箍]什么武士，海盗，圣骑士，侠客巴拉巴拉的</t>
   </si>
   <si>
-    <t>2025-03-24 01:02:18</t>
-  </si>
-  <si>
-    <t>8631195</t>
-  </si>
-  <si>
-    <t>凤舞九天六界成皇</t>
-  </si>
-  <si>
     <t>忙着撸狗和修庄园，18个小时了，还没出第一个地图呢[滑稽]</t>
   </si>
   <si>
-    <t>2025-03-24 00:34:53</t>
-  </si>
-  <si>
-    <t>5022741</t>
-  </si>
-  <si>
-    <t>Damon_R</t>
-  </si>
-  <si>
     <t>捋顺后再浓缩下就还可以，但游戏里几十个小时的游玩，加上倒叙，会看的很困。</t>
   </si>
   <si>
-    <t>2025-03-24 00:30:20</t>
-  </si>
-  <si>
-    <t>82750772</t>
-  </si>
-  <si>
-    <t>鹭月娜</t>
-  </si>
-  <si>
     <t>可惜游戏本身叙事大有问题 估计是应对节奏砍了太多广州黑龙的剧情 然后又补了些玩意导致的</t>
   </si>
   <si>
-    <t>2025-03-23 23:48:01</t>
-  </si>
-  <si>
-    <t>12310991</t>
-  </si>
-  <si>
-    <t>看个貔</t>
-  </si>
-  <si>
     <t>听说可以破坏神社，然后黑人能把日本人皇室滚传单[doge][doge][doge]</t>
   </si>
   <si>
-    <t>23477122</t>
-  </si>
-  <si>
-    <t>洋葱突击兵</t>
-  </si>
-  <si>
     <t>请恕我实在不明白小日子的三观，杀父之仇、灭族之仇……说原谅就原谅？</t>
   </si>
   <si>
-    <t>2025-03-23 22:36:12</t>
-  </si>
-  <si>
-    <t>266752906</t>
-  </si>
-  <si>
-    <t>差几个硬币改名字</t>
-  </si>
-  <si>
     <t>黑人男和日本女的故事吗？幸亏不是日本人自己做游戏 不然不得不让人多像[脸红]</t>
   </si>
   <si>
-    <t>2025-03-23 22:25:16</t>
-  </si>
-  <si>
-    <t>675789</t>
-  </si>
-  <si>
-    <t>霜麟聚露_甘雨</t>
-  </si>
-  <si>
     <t>我觉得给《刺客信条影》打差评的人，真是莫名其妙！你们难道对一款——能那啥天皇祖先（织田市）、暴打日本武士、据说之前还可以挖天皇和其他贵族祖坟的游戏，打差评？你们认真的吗？[doge_金箍]</t>
-  </si>
-  <si>
-    <t>2025-03-23 22:14:14</t>
-  </si>
-  <si>
-    <t>541006</t>
-  </si>
-  <si>
-    <t>安产型的小北</t>
   </si>
   <si>
     <t>弥助这场耻辱性的大败已经成为了阿拉伯界最大的话题，让我们听一听前苏丹买买提二世对此的点评，一向直性子的买大苏丹直言，再这样下去，刺客组织只怕是连面子都不要了。
@@ -755,36 +425,215 @@
 欧呦，谢天谢天地欧，我已经说了，你连刺客是穆斯林这样基础的设定都不完善，你跟我保证他尊重的好历史，务实一点，我劝你什么，把刺客必须是什叶派的理念先搞懂，波斯题材蛮好的，你放弃他干嘛啦你跟我讲，脸都不要了。</t>
   </si>
   <si>
-    <t>2025-03-23 22:06:22</t>
-  </si>
-  <si>
     <t>弥助这场耻辱性的大败已经成为了阿拉伯界最大的话题，让我们听一听前苏丹买买提二世对此的点评，一向直性子的买大苏丹直言，再这样下去，刺客组织只怕是连面子都不要了。
 你说刺客信条，一代一代换了多少主角了，有正儿八经的刺客吗，一个都没有啊。人家圣殿骑士也有理由说的，我手下什么人啊，我好歹有基督徒啊，你这批什么人啊，全是假夹克。刺客组织现在成分啊，就这么几个人，你奈绪江什么的都说自己是刺客，她配吗，她不配，她信神道教的知道伐。再这样下去犹太教也要来了，犹太教加好，加拜火教再加北欧多神教，然后就是不加什叶派。
 另一方面来说，育碧是非常尊重历史的。
 欧呦，谢天谢天地欧，我已经说了，你连刺客是穆斯林这样基础的设定都不完善，你跟我保证他尊重的好历史，务实一点，我劝你什么，把刺客必须是什叶派的理念先搞懂，波斯题材蛮好的，你放弃他干嘛啦你跟我讲，脸都不要了。</t>
   </si>
   <si>
+    <t>啊？这就出来了？</t>
+  </si>
+  <si>
+    <t>2025-03-27 11:28:20</t>
+  </si>
+  <si>
+    <t>2025-03-27 08:28:35</t>
+  </si>
+  <si>
+    <t>2025-03-27 06:29:13</t>
+  </si>
+  <si>
+    <t>2025-03-27 01:38:01</t>
+  </si>
+  <si>
+    <t>2025-03-27 00:57:20</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:26:10</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:00:44</t>
+  </si>
+  <si>
+    <t>2025-03-26 09:29:19</t>
+  </si>
+  <si>
+    <t>2025-03-26 03:58:01</t>
+  </si>
+  <si>
+    <t>2025-03-26 02:36:17</t>
+  </si>
+  <si>
+    <t>2025-03-26 01:07:07</t>
+  </si>
+  <si>
+    <t>2025-03-26 00:14:16</t>
+  </si>
+  <si>
+    <t>2025-03-26 00:05:37</t>
+  </si>
+  <si>
+    <t>2025-03-25 20:58:27</t>
+  </si>
+  <si>
+    <t>2025-03-25 17:25:15</t>
+  </si>
+  <si>
+    <t>2025-03-25 16:37:51</t>
+  </si>
+  <si>
+    <t>2025-03-25 16:22:35</t>
+  </si>
+  <si>
+    <t>2025-03-25 13:00:24</t>
+  </si>
+  <si>
+    <t>2025-03-25 11:50:13</t>
+  </si>
+  <si>
+    <t>2025-03-25 11:41:13</t>
+  </si>
+  <si>
+    <t>2025-03-25 11:11:55</t>
+  </si>
+  <si>
+    <t>2025-03-25 09:13:25</t>
+  </si>
+  <si>
+    <t>2025-03-25 07:16:14</t>
+  </si>
+  <si>
+    <t>2025-03-25 04:33:10</t>
+  </si>
+  <si>
+    <t>2025-03-25 04:21:15</t>
+  </si>
+  <si>
+    <t>2025-03-25 01:59:32</t>
+  </si>
+  <si>
+    <t>2025-03-24 23:43:19</t>
+  </si>
+  <si>
+    <t>2025-03-24 22:51:21</t>
+  </si>
+  <si>
+    <t>2025-03-24 20:46:11</t>
+  </si>
+  <si>
+    <t>2025-03-24 19:58:43</t>
+  </si>
+  <si>
+    <t>2025-03-24 19:15:05</t>
+  </si>
+  <si>
+    <t>2025-03-24 19:01:00</t>
+  </si>
+  <si>
+    <t>2025-03-24 18:55:58</t>
+  </si>
+  <si>
+    <t>2025-03-24 18:47:43</t>
+  </si>
+  <si>
+    <t>2025-03-24 18:41:32</t>
+  </si>
+  <si>
+    <t>2025-03-24 18:03:18</t>
+  </si>
+  <si>
+    <t>2025-03-24 17:11:06</t>
+  </si>
+  <si>
+    <t>2025-03-24 15:19:22</t>
+  </si>
+  <si>
+    <t>2025-03-24 15:15:49</t>
+  </si>
+  <si>
+    <t>2025-03-24 13:42:59</t>
+  </si>
+  <si>
+    <t>2025-03-24 13:20:02</t>
+  </si>
+  <si>
+    <t>2025-03-24 13:02:04</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:52:25</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:48:01</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:36:51</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:03:22</t>
+  </si>
+  <si>
+    <t>2025-03-24 03:32:35</t>
+  </si>
+  <si>
+    <t>2025-03-24 03:30:36</t>
+  </si>
+  <si>
+    <t>2025-03-24 01:42:43</t>
+  </si>
+  <si>
+    <t>2025-03-24 01:02:18</t>
+  </si>
+  <si>
+    <t>2025-03-24 00:34:53</t>
+  </si>
+  <si>
+    <t>2025-03-24 00:30:20</t>
+  </si>
+  <si>
+    <t>2025-03-23 23:48:01</t>
+  </si>
+  <si>
+    <t>2025-03-23 22:36:12</t>
+  </si>
+  <si>
+    <t>2025-03-23 22:25:16</t>
+  </si>
+  <si>
+    <t>2025-03-23 22:14:14</t>
+  </si>
+  <si>
+    <t>2025-03-23 22:06:22</t>
+  </si>
+  <si>
     <t>2025-03-23 22:05:04</t>
   </si>
   <si>
-    <t>6619677</t>
-  </si>
-  <si>
-    <t>peek_pig</t>
-  </si>
-  <si>
-    <t>啊？这就出来了？</t>
-  </si>
-  <si>
     <t>2025-03-23 21:45:55</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>中性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -800,7 +649,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -808,12 +657,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,1316 +975,1436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>258801667824</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>1742227</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>258791378384</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>65180145</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>257972100641</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="C4">
+        <v>405007878</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="K4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257966991281</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>8802672</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>258780479904</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6">
+        <v>12757947</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>257919373601</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>291039965</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>258731613072</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="C8">
+        <v>25548147</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>258712934880</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
+      <c r="C9">
+        <v>17732839</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>257891677313</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
+      <c r="C10">
+        <v>630440281</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>257890206273</v>
       </c>
-      <c r="C11" t="s">
-        <v>51</v>
+      <c r="C11">
+        <v>5683287</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>258699256928</v>
       </c>
-      <c r="C12" t="s">
-        <v>55</v>
+      <c r="C12">
+        <v>270753813</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>257884078769</v>
       </c>
-      <c r="C13" t="s">
-        <v>59</v>
+      <c r="C13">
+        <v>899757</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>257883535089</v>
       </c>
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="C14">
+        <v>899757</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>258679363168</v>
       </c>
-      <c r="C15" t="s">
-        <v>65</v>
+      <c r="C15">
+        <v>11516906</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>257850784849</v>
       </c>
-      <c r="C16" t="s">
-        <v>69</v>
+      <c r="C16">
+        <v>7396560</v>
       </c>
       <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>258658237216</v>
       </c>
-      <c r="C17" t="s">
-        <v>73</v>
+      <c r="C17">
+        <v>10604039</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>258657364688</v>
       </c>
-      <c r="C18" t="s">
-        <v>77</v>
+      <c r="C18">
+        <v>11677815</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>258645091920</v>
       </c>
-      <c r="C19" t="s">
-        <v>81</v>
+      <c r="C19">
+        <v>122388447</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>257829304593</v>
       </c>
-      <c r="C20" t="s">
-        <v>85</v>
+      <c r="C20">
+        <v>1845793</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>257828743649</v>
       </c>
-      <c r="C21" t="s">
-        <v>89</v>
+      <c r="C21">
+        <v>122630777</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>257826792577</v>
       </c>
-      <c r="C22" t="s">
-        <v>93</v>
+      <c r="C22">
+        <v>490832592</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>258629731616</v>
       </c>
-      <c r="C23" t="s">
-        <v>97</v>
+      <c r="C23">
+        <v>73812214</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>258624921408</v>
       </c>
-      <c r="C24" t="s">
-        <v>101</v>
+      <c r="C24">
+        <v>11218907</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>257813289489</v>
       </c>
-      <c r="C25" t="s">
-        <v>105</v>
+      <c r="C25">
+        <v>33817495</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>257813147361</v>
       </c>
-      <c r="C26" t="s">
-        <v>109</v>
+      <c r="C26">
+        <v>10100387</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I26">
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>258619519568</v>
       </c>
-      <c r="C27" t="s">
-        <v>113</v>
+      <c r="C27">
+        <v>9331031</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>257803420321</v>
       </c>
-      <c r="C28" t="s">
-        <v>117</v>
+      <c r="C28">
+        <v>482542061</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>258607942800</v>
       </c>
-      <c r="C29" t="s">
-        <v>121</v>
+      <c r="C29">
+        <v>1303626104</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>257788900977</v>
       </c>
-      <c r="C30" t="s">
-        <v>125</v>
+      <c r="C30">
+        <v>626668458</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>258593267200</v>
       </c>
-      <c r="C31" t="s">
-        <v>129</v>
+      <c r="C31">
+        <v>637043</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>257781577921</v>
       </c>
-      <c r="C32" t="s">
-        <v>133</v>
+      <c r="C32">
+        <v>529324758</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>257780501569</v>
       </c>
-      <c r="C33" t="s">
-        <v>137</v>
+      <c r="C33">
+        <v>319931293</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>258588066528</v>
       </c>
-      <c r="C34" t="s">
-        <v>141</v>
+      <c r="C34">
+        <v>674774546</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F34">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>257779341409</v>
       </c>
-      <c r="C35" t="s">
-        <v>145</v>
+      <c r="C35">
+        <v>395908764</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>258586895936</v>
       </c>
-      <c r="C36" t="s">
-        <v>149</v>
+      <c r="C36">
+        <v>519858548</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>257775947889</v>
       </c>
-      <c r="C37" t="s">
-        <v>153</v>
+      <c r="C37">
+        <v>183258054</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>258579977488</v>
       </c>
-      <c r="C38" t="s">
-        <v>157</v>
+      <c r="C38">
+        <v>179063825</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>258573317296</v>
       </c>
-      <c r="C39" t="s">
-        <v>161</v>
+      <c r="C39">
+        <v>451978042</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>257765618929</v>
       </c>
-      <c r="C40" t="s">
-        <v>165</v>
+      <c r="C40">
+        <v>694031791</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>257760564545</v>
       </c>
-      <c r="C41" t="s">
-        <v>169</v>
+      <c r="C41">
+        <v>2054177</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="I41">
         <v>6</v>
@@ -2425,645 +2412,708 @@
       <c r="J41" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>258566452048</v>
       </c>
-      <c r="C42" t="s">
-        <v>173</v>
+      <c r="C42">
+        <v>17130016</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>257757737265</v>
       </c>
-      <c r="C43" t="s">
-        <v>177</v>
+      <c r="C43">
+        <v>331396963</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>258555434304</v>
       </c>
-      <c r="C44" t="s">
-        <v>181</v>
+      <c r="C44">
+        <v>34290367</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="I44">
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>258555239456</v>
       </c>
-      <c r="C45" t="s">
-        <v>181</v>
+      <c r="C45">
+        <v>34290367</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>258551098816</v>
       </c>
-      <c r="C46" t="s">
-        <v>187</v>
+      <c r="C46">
+        <v>38243218</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>257742464481</v>
       </c>
-      <c r="C47" t="s">
-        <v>191</v>
+      <c r="C47">
+        <v>384601179</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>257735741137</v>
       </c>
-      <c r="C48" t="s">
-        <v>195</v>
+      <c r="C48">
+        <v>4113375</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>258542330544</v>
       </c>
-      <c r="C49" t="s">
-        <v>199</v>
+      <c r="C49">
+        <v>864741</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>258539399168</v>
       </c>
-      <c r="C50" t="s">
-        <v>203</v>
+      <c r="C50">
+        <v>38735629</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>258537504896</v>
       </c>
-      <c r="C51" t="s">
-        <v>207</v>
+      <c r="C51">
+        <v>3493083601701137</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>257729629937</v>
       </c>
-      <c r="C52" t="s">
-        <v>211</v>
+      <c r="C52">
+        <v>8631195</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="I52">
         <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>258535583680</v>
       </c>
-      <c r="C53" t="s">
-        <v>215</v>
+      <c r="C53">
+        <v>5022741</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K53" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>257726440753</v>
       </c>
-      <c r="C54" t="s">
-        <v>219</v>
+      <c r="C54">
+        <v>82750772</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>257726484209</v>
       </c>
-      <c r="C55" t="s">
-        <v>223</v>
+      <c r="C55">
+        <v>12310991</v>
       </c>
       <c r="D55" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>258526446848</v>
       </c>
-      <c r="C56" t="s">
-        <v>226</v>
+      <c r="C56">
+        <v>23477122</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>258525421312</v>
       </c>
-      <c r="C57" t="s">
-        <v>230</v>
+      <c r="C57">
+        <v>266752906</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>257718527809</v>
       </c>
-      <c r="C58" t="s">
-        <v>234</v>
+      <c r="C58">
+        <v>675789</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>258523854560</v>
       </c>
-      <c r="C59" t="s">
-        <v>238</v>
+      <c r="C59">
+        <v>541006</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H59" t="s">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>258523764560</v>
       </c>
-      <c r="C60" t="s">
-        <v>238</v>
+      <c r="C60">
+        <v>541006</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>257716079153</v>
       </c>
-      <c r="C61" t="s">
-        <v>244</v>
+      <c r="C61">
+        <v>6619677</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>247</v>
+        <v>191</v>
+      </c>
+      <c r="K61" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
